--- a/CheckListTIPE.xlsx
+++ b/CheckListTIPE.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BF5D00-7E06-44DE-995B-E1B157616789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -40,9 +41,6 @@
   </si>
   <si>
     <t>Ai-je confronté les résultats de mon expérimentation aux objectifs ?</t>
-  </si>
-  <si>
-    <t>Ai-je utilisé un thème de présenation, afin d'améliorer le côté visuel ?</t>
   </si>
   <si>
     <t>Ai-je utilisé la même police pour toutes les diapos ?</t>
@@ -165,11 +163,14 @@
   <si>
     <t>Ai-je bien légendé toutes mes courbes (abscisses, ordonnées, légende des courbes)</t>
   </si>
+  <si>
+    <t>Ai-je utilisé un thème de présenation sobre, clair et lisible qui met en valeur ma présentation afin d'améliorer le côté visuel ?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -487,6 +488,25 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -505,25 +525,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -617,6 +618,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -652,6 +670,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -827,304 +862,299 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="81.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="81.26953125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+    <row r="1" spans="1:3" ht="99.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="13"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="6"/>
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="6"/>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="6"/>
       <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="6"/>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="6"/>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="6"/>
-      <c r="B13" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="22"/>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="11"/>
+    </row>
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="13"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="9"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="14"/>
       <c r="B17" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
+    <row r="18" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="15"/>
       <c r="B18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="16"/>
+      <c r="B19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="22"/>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="17"/>
+      <c r="B22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="17"/>
+      <c r="B23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="17"/>
+      <c r="B24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="17"/>
+      <c r="B25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="18"/>
+      <c r="B26" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
-      <c r="B19" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="9"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="2" t="s">
+      <c r="C26" s="5"/>
+    </row>
+    <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="22"/>
+      <c r="C28" s="9"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="17"/>
+      <c r="B29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="2" t="s">
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="17"/>
+      <c r="B30" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="4"/>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
-      <c r="B26" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="5"/>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="9"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="2" t="s">
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="17"/>
+      <c r="B31" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="4"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="4"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="17"/>
+      <c r="B32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="4"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C32" s="4"/>
     </row>
-    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="11"/>
+    <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="18"/>
       <c r="B33" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="5"/>
     </row>
-    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
+    <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="22"/>
+      <c r="C35" s="9"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="17"/>
+      <c r="B36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="4"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="17"/>
+      <c r="B37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="4"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="17"/>
+      <c r="B38" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="4"/>
+    </row>
+    <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="18"/>
+      <c r="B39" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="9"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
-      <c r="B36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="4"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
-      <c r="B37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="4"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
-      <c r="B38" s="2" t="s">
+      <c r="C39" s="5"/>
+    </row>
+    <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="22"/>
+      <c r="C41" s="9"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="17"/>
+      <c r="B42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="4"/>
+    </row>
+    <row r="43" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A43" s="17"/>
+      <c r="B43" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="4"/>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="11"/>
-      <c r="B39" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39" s="5"/>
-    </row>
-    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B41" s="15"/>
-      <c r="C41" s="9"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
-      <c r="B42" s="2" t="s">
+      <c r="C43" s="4"/>
+    </row>
+    <row r="44" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="18"/>
+      <c r="B44" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="C42" s="4"/>
-    </row>
-    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
-      <c r="B43" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C43" s="4"/>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="11"/>
-      <c r="B44" s="8" t="s">
-        <v>17</v>
       </c>
       <c r="C44" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="A36:A39"/>
     <mergeCell ref="A42:A44"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A16:B16"/>
@@ -1132,6 +1162,11 @@
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A36:A39"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -1140,24 +1175,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CheckListTIPE.xlsx
+++ b/CheckListTIPE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Mise en forme générale</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>Ai-je bien légendé toutes mes courbes (abscisses, ordonnées, légende des courbes)</t>
+  </si>
+  <si>
+    <t>Ma présentation est au format 4/3 (c'est pas très joli mais c'est demandé dans les rapports)</t>
   </si>
 </sst>
 </file>
@@ -487,6 +490,25 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -505,25 +527,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -831,10 +834,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,18 +848,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="13"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="3" t="s">
         <v>20</v>
       </c>
@@ -868,270 +871,277 @@
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="2" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="21" t="s">
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="22"/>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8" t="s">
+      <c r="C14" s="11"/>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="9"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="20"/>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
-      <c r="B19" s="8" t="s">
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="16"/>
+      <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="9"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="22"/>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="17"/>
+      <c r="B23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="17"/>
+      <c r="B24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="17"/>
+      <c r="B25" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="17"/>
+      <c r="B26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="4"/>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
-      <c r="B26" s="8" t="s">
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="18"/>
+      <c r="B27" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="5"/>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
+      <c r="C27" s="5"/>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="9"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="22"/>
+      <c r="C29" s="9"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="17"/>
+      <c r="B30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="4"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="17"/>
+      <c r="B31" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="4"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="17"/>
+      <c r="B32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="4"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="4"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="17"/>
+      <c r="B33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="4"/>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="11"/>
-      <c r="B33" s="8" t="s">
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="18"/>
+      <c r="B34" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="9"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="22"/>
+      <c r="C36" s="9"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="17"/>
+      <c r="B37" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="4"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="4"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="17"/>
+      <c r="B38" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="4"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="4"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="17"/>
+      <c r="B39" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="4"/>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="11"/>
-      <c r="B39" s="8" t="s">
+      <c r="C39" s="4"/>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="18"/>
+      <c r="B40" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="5"/>
-    </row>
-    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
+      <c r="C40" s="5"/>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="15"/>
-      <c r="C41" s="9"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="22"/>
+      <c r="C42" s="9"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="17"/>
+      <c r="B43" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="4"/>
-    </row>
-    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
-      <c r="B43" s="2" t="s">
+      <c r="C43" s="4"/>
+    </row>
+    <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="17"/>
+      <c r="B44" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="4"/>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="11"/>
-      <c r="B44" s="8" t="s">
+      <c r="C44" s="4"/>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="18"/>
+      <c r="B45" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C44" s="5"/>
+      <c r="C45" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A42:B42"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="A37:A40"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/CheckListTIPE.xlsx
+++ b/CheckListTIPE.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BF5D00-7E06-44DE-995B-E1B157616789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358FE447-E84A-4BAD-A383-1562A60AFA5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>S'il y a des perspectives à mon TIPE, est-ce que je les ai présentées ?</t>
-  </si>
-  <si>
-    <t>Est-ce que touts les textes soulignés ont été remplacés par du texte en gras (oui, c'est un  petit TOC, je n'aime pas le texte souligné).</t>
   </si>
   <si>
     <t>Ai-je présenté l'articulation de mon TIPE (ou le plan) ?</t>
@@ -112,9 +109,6 @@
     </r>
   </si>
   <si>
-    <t>Ai-je utilisé moins de 3 tailles de police pour la présentation</t>
-  </si>
-  <si>
     <t>Ai-je refait les figures simples ?</t>
   </si>
   <si>
@@ -165,6 +159,12 @@
   </si>
   <si>
     <t>Ai-je utilisé un thème de présenation sobre, clair et lisible qui met en valeur ma présentation afin d'améliorer le côté visuel ?</t>
+  </si>
+  <si>
+    <t>Ai-je utilisé moins de 3 tailles de police pour toute la présentation ?</t>
+  </si>
+  <si>
+    <t>Est-ce que touts les textes soulignés ont été remplacés par du texte en gras (oui, c'est un petit TOC, je n'aime pas le texte souligné).</t>
   </si>
 </sst>
 </file>
@@ -492,6 +492,24 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -506,24 +524,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -543,9 +543,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -583,9 +583,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -618,26 +618,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -670,26 +653,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -869,7 +835,7 @@
   <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -880,20 +846,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="99.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="A1" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="20"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -906,7 +872,7 @@
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="6"/>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" s="4"/>
     </row>
@@ -920,7 +886,7 @@
     <row r="7" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="6"/>
       <c r="B7" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C7" s="4"/>
     </row>
@@ -934,7 +900,7 @@
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C9" s="4"/>
     </row>
@@ -948,141 +914,141 @@
     <row r="11" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="2" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="6"/>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="6"/>
       <c r="B13" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" s="11"/>
     </row>
     <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="20"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="9"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="14"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="15"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="16"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="22"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="9"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="17"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="17"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C23" s="4"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="17"/>
+      <c r="A24" s="12"/>
       <c r="B24" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C24" s="4"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="17"/>
+      <c r="A25" s="12"/>
       <c r="B25" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C25" s="4"/>
     </row>
     <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="18"/>
+      <c r="A26" s="13"/>
       <c r="B26" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C26" s="5"/>
     </row>
     <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="22"/>
+      <c r="B28" s="17"/>
       <c r="C28" s="9"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="17"/>
+      <c r="A29" s="12"/>
       <c r="B29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="12"/>
+      <c r="B30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="12"/>
+      <c r="B31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="12"/>
+      <c r="B32" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="4"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="17"/>
-      <c r="B30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="4"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="17"/>
-      <c r="B31" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="4"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="17"/>
-      <c r="B32" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="C32" s="4"/>
     </row>
     <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="18"/>
+      <c r="A33" s="13"/>
       <c r="B33" s="8" t="s">
         <v>7</v>
       </c>
@@ -1090,35 +1056,35 @@
     </row>
     <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="22"/>
+      <c r="B35" s="17"/>
       <c r="C35" s="9"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="17"/>
+      <c r="A36" s="12"/>
       <c r="B36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C36" s="4"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="17"/>
+      <c r="A37" s="12"/>
       <c r="B37" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="4"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="17"/>
+      <c r="A38" s="12"/>
       <c r="B38" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C38" s="4"/>
     </row>
     <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="18"/>
+      <c r="A39" s="13"/>
       <c r="B39" s="8" t="s">
         <v>13</v>
       </c>
@@ -1126,28 +1092,28 @@
     </row>
     <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="22"/>
+      <c r="B41" s="17"/>
       <c r="C41" s="9"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="17"/>
+      <c r="A42" s="12"/>
       <c r="B42" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C42" s="4"/>
     </row>
     <row r="43" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A43" s="17"/>
+      <c r="A43" s="12"/>
       <c r="B43" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C43" s="4"/>
     </row>
     <row r="44" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="18"/>
+      <c r="A44" s="13"/>
       <c r="B44" s="8" t="s">
         <v>16</v>
       </c>
@@ -1155,6 +1121,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A36:A39"/>
     <mergeCell ref="A42:A44"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A16:B16"/>
@@ -1162,11 +1133,6 @@
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="A36:A39"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/CheckListTIPE.xlsx
+++ b/CheckListTIPE.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358FE447-E84A-4BAD-A383-1562A60AFA5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D44B2C8-56FB-4D73-A062-6EDBB4E69E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="1520" windowWidth="19180" windowHeight="7890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" concurrentCalc="0"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Mise en forme générale</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>Est-ce que touts les textes soulignés ont été remplacés par du texte en gras (oui, c'est un petit TOC, je n'aime pas le texte souligné).</t>
+  </si>
+  <si>
+    <t>Ma présentation est-elle au format 4/3 ?</t>
   </si>
 </sst>
 </file>
@@ -213,7 +216,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -465,11 +468,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -492,6 +508,21 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -510,19 +541,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -832,10 +854,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -846,293 +868,300 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="99.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="15"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="6"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="C4" s="24"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="6"/>
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
       <c r="B6" s="2" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="6"/>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="6"/>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="6"/>
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="6"/>
       <c r="B12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="6"/>
+      <c r="B13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="6"/>
-      <c r="B13" s="10" t="s">
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="6"/>
+      <c r="B14" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="11"/>
-    </row>
-    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8" t="s">
+      <c r="C14" s="11"/>
+    </row>
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="14" t="s">
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="9"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="20"/>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="20"/>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="14"/>
+      <c r="B18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="21"/>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="15"/>
+      <c r="B19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="22"/>
-      <c r="B19" s="8" t="s">
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="16"/>
+      <c r="B20" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="16" t="s">
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="9"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="12"/>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="22"/>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="17"/>
+      <c r="B23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="12"/>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="17"/>
+      <c r="B24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="12"/>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="17"/>
+      <c r="B25" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="12"/>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="17"/>
+      <c r="B26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="4"/>
-    </row>
-    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="13"/>
-      <c r="B26" s="8" t="s">
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="18"/>
+      <c r="B27" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="5"/>
-    </row>
-    <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="16" t="s">
+      <c r="C27" s="5"/>
+    </row>
+    <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="9"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="12"/>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="22"/>
+      <c r="C29" s="9"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="17"/>
+      <c r="B30" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="4"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="12"/>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="17"/>
+      <c r="B31" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="4"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="12"/>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="17"/>
+      <c r="B32" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="4"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="12"/>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="4"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="17"/>
+      <c r="B33" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="4"/>
-    </row>
-    <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="13"/>
-      <c r="B33" s="8" t="s">
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="18"/>
+      <c r="B34" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="16" t="s">
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="9"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="12"/>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="22"/>
+      <c r="C36" s="9"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="17"/>
+      <c r="B37" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="4"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="12"/>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="4"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="17"/>
+      <c r="B38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="4"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="12"/>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="4"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="17"/>
+      <c r="B39" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="4"/>
-    </row>
-    <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="13"/>
-      <c r="B39" s="8" t="s">
+      <c r="C39" s="4"/>
+    </row>
+    <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="18"/>
+      <c r="B40" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="5"/>
-    </row>
-    <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="16" t="s">
+      <c r="C40" s="5"/>
+    </row>
+    <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="17"/>
-      <c r="C41" s="9"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="12"/>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="22"/>
+      <c r="C42" s="9"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="17"/>
+      <c r="B43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="4"/>
-    </row>
-    <row r="43" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A43" s="12"/>
-      <c r="B43" s="2" t="s">
+      <c r="C43" s="4"/>
+    </row>
+    <row r="44" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A44" s="17"/>
+      <c r="B44" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C43" s="4"/>
-    </row>
-    <row r="44" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="13"/>
-      <c r="B44" s="8" t="s">
+      <c r="C44" s="4"/>
+    </row>
+    <row r="45" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="18"/>
+      <c r="B45" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C44" s="5"/>
+      <c r="C45" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A42:B42"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="A37:A40"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
